--- a/KLAR.xlsx
+++ b/KLAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CFCED-FE49-40CB-8283-5E9C114A42FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F1913-60B6-4FD0-B1F3-A2AA70948428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{35BE1AF2-A152-47A0-8FD6-004A4B2583EB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{35BE1AF2-A152-47A0-8FD6-004A4B2583EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Klarna</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>EV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">targeted valuation </t>
   </si>
   <si>
     <t>Main</t>
@@ -264,6 +261,9 @@
   <si>
     <t>Peak valuation 45,6 billion in June 2021</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
 </sst>
 </file>
 
@@ -274,13 +274,19 @@
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -357,23 +363,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -713,7 +722,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -734,13 +743,20 @@
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>365</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -750,10 +766,8 @@
         <v>8</v>
       </c>
       <c r="I4" s="4">
-        <v>15000</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
+        <f>+I2*I3</f>
+        <v>16060</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -763,22 +777,35 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>5504</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>727</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <f>+I4-I5+I6</f>
+        <v>11283</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
@@ -787,23 +814,23 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -813,32 +840,32 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -871,35 +898,35 @@
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -978,7 +1005,7 @@
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1053,7 +1080,7 @@
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1202,7 +1229,7 @@
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1281,7 +1308,7 @@
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1360,7 +1387,7 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1442,7 +1469,7 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1521,7 +1548,7 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1603,7 +1630,7 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1682,7 +1709,7 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1761,7 +1788,7 @@
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1840,7 +1867,7 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1919,7 +1946,7 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1998,7 +2025,7 @@
     </row>
     <row r="17" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2077,7 +2104,7 @@
     </row>
     <row r="18" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2156,7 +2183,7 @@
     </row>
     <row r="19" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2238,7 +2265,7 @@
     </row>
     <row r="20" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2317,7 +2344,7 @@
     </row>
     <row r="21" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2399,7 +2426,7 @@
     </row>
     <row r="22" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2478,7 +2505,7 @@
     </row>
     <row r="23" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2560,7 +2587,7 @@
     </row>
     <row r="24" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2709,7 +2736,7 @@
     </row>
     <row r="26" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2925,7 +2952,7 @@
     </row>
     <row r="29" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3004,7 +3031,7 @@
     </row>
     <row r="30" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3083,7 +3110,7 @@
     </row>
     <row r="31" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3162,7 +3189,7 @@
     </row>
     <row r="32" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3241,7 +3268,7 @@
     </row>
     <row r="33" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3320,7 +3347,7 @@
     </row>
     <row r="34" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3399,7 +3426,7 @@
     </row>
     <row r="35" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3481,7 +3508,7 @@
     </row>
     <row r="36" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3563,7 +3590,7 @@
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
